--- a/Sartorious_experiments/Finalised_Data/BOTorch_best_para_stats.xlsx
+++ b/Sartorious_experiments/Finalised_Data/BOTorch_best_para_stats.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>Viscosity standard 204</t>
   </si>
@@ -36,12 +36,18 @@
   <si>
     <t>%D</t>
   </si>
+  <si>
+    <t>Viscosity standard 817</t>
+  </si>
+  <si>
+    <t>Viscosity standard 1275</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -53,19 +59,17 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -80,18 +84,24 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -488,8 +498,9 @@
       <c r="H5" s="1">
         <v>493.367883</v>
       </c>
-      <c r="I5" s="2">
-        <v>456.480407</v>
+      <c r="I5" s="1">
+        <f>0.419795/(0.8683/1000)</f>
+        <v>483.4676955</v>
       </c>
       <c r="J5" s="1">
         <v>483.888796</v>
@@ -535,8 +546,9 @@
       <c r="A6" s="1">
         <v>1000.0</v>
       </c>
-      <c r="B6" s="2">
-        <v>969.514863</v>
+      <c r="B6" s="1">
+        <f>DIVIDE(0.850503,0.8639/1000)</f>
+        <v>984.4924181</v>
       </c>
       <c r="C6" s="1">
         <v>990.733174</v>
@@ -635,39 +647,39 @@
       <c r="A9" s="1">
         <v>300.0</v>
       </c>
-      <c r="B9" s="3">
-        <f>AVERAGE(B4:K4)</f>
+      <c r="B9" s="2">
+        <f t="shared" ref="B9:B11" si="1">AVERAGE(B4:K4)</f>
         <v>290.9421657</v>
       </c>
-      <c r="C9" s="3">
-        <f>STDEV(B4:K4)</f>
+      <c r="C9" s="2">
+        <f t="shared" ref="C9:C11" si="2">STDEV(B4:K4)</f>
         <v>3.478034545</v>
       </c>
-      <c r="D9" s="3">
-        <f t="shared" ref="D9:D11" si="1">DIVIDE(C9,DIVIDE(B9,100))</f>
+      <c r="D9" s="2">
+        <f t="shared" ref="D9:D11" si="3">DIVIDE(C9,DIVIDE(B9,100))</f>
         <v>1.19543846</v>
       </c>
-      <c r="E9" s="3">
-        <f t="shared" ref="E9:E11" si="2">MULTIPLY(DIVIDE(MINUS(A9,B9),A9),100)</f>
+      <c r="E9" s="2">
+        <f t="shared" ref="E9:E11" si="4">MULTIPLY(DIVIDE(MINUS(A9,B9),A9),100)</f>
         <v>3.0192781</v>
       </c>
       <c r="M9" s="1">
         <v>300.0</v>
       </c>
-      <c r="N9" s="3">
-        <f t="shared" ref="N9:N11" si="3">AVERAGE(N4:W4)</f>
+      <c r="N9" s="2">
+        <f t="shared" ref="N9:N11" si="5">AVERAGE(N4:W4)</f>
         <v>284.9352427</v>
       </c>
-      <c r="O9" s="3">
-        <f t="shared" ref="O9:O11" si="4">STDEV(N4:W4)</f>
+      <c r="O9" s="2">
+        <f t="shared" ref="O9:O11" si="6">STDEV(N4:W4)</f>
         <v>4.271585961</v>
       </c>
-      <c r="P9" s="4">
-        <f t="shared" ref="P9:P11" si="5">DIVIDE(O9,DIVIDE(N9,100))</f>
+      <c r="P9" s="3">
+        <f t="shared" ref="P9:P11" si="7">DIVIDE(O9,DIVIDE(N9,100))</f>
         <v>1.499142725</v>
       </c>
-      <c r="Q9" s="3">
-        <f t="shared" ref="Q9:Q11" si="6">MULTIPLY(DIVIDE(MINUS(M9,N9),M9),100)</f>
+      <c r="Q9" s="2">
+        <f t="shared" ref="Q9:Q11" si="8">MULTIPLY(DIVIDE(MINUS(M9,N9),M9),100)</f>
         <v>5.021585767</v>
       </c>
     </row>
@@ -675,39 +687,39 @@
       <c r="A10" s="1">
         <v>500.0</v>
       </c>
-      <c r="B10" s="3">
-        <f>AVERAGE(B5:H5,J5:K5)</f>
-        <v>485.6110741</v>
-      </c>
-      <c r="C10" s="3">
-        <f>STDEV(B5:H5,J5:K5)</f>
-        <v>6.465325033</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="B10" s="2">
         <f t="shared" si="1"/>
-        <v>1.331379241</v>
-      </c>
-      <c r="E10" s="3">
+        <v>485.3967362</v>
+      </c>
+      <c r="C10" s="2">
         <f t="shared" si="2"/>
-        <v>2.877785178</v>
+        <v>6.133134842</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="3"/>
+        <v>1.263530301</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="4"/>
+        <v>2.92065275</v>
       </c>
       <c r="M10" s="1">
         <v>500.0</v>
       </c>
-      <c r="N10" s="3">
-        <f t="shared" si="3"/>
+      <c r="N10" s="2">
+        <f t="shared" si="5"/>
         <v>486.3788242</v>
       </c>
-      <c r="O10" s="3">
-        <f t="shared" si="4"/>
+      <c r="O10" s="2">
+        <f t="shared" si="6"/>
         <v>7.562846193</v>
       </c>
-      <c r="P10" s="4">
-        <f t="shared" si="5"/>
+      <c r="P10" s="3">
+        <f t="shared" si="7"/>
         <v>1.554929166</v>
       </c>
-      <c r="Q10" s="3">
-        <f t="shared" si="6"/>
+      <c r="Q10" s="2">
+        <f t="shared" si="8"/>
         <v>2.72423516</v>
       </c>
     </row>
@@ -715,50 +727,437 @@
       <c r="A11" s="1">
         <v>1000.0</v>
       </c>
-      <c r="B11" s="3">
-        <f>AVERAGE(C6:K6)</f>
-        <v>989.9498091</v>
-      </c>
-      <c r="C11" s="3">
-        <f>STDEV(C6:K6)</f>
-        <v>4.585309015</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="B11" s="2">
         <f t="shared" si="1"/>
-        <v>0.4631860093</v>
-      </c>
-      <c r="E11" s="3">
+        <v>989.40407</v>
+      </c>
+      <c r="C11" s="2">
         <f t="shared" si="2"/>
-        <v>1.005019089</v>
+        <v>4.65480964</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="3"/>
+        <v>0.4704659887</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="4"/>
+        <v>1.059592999</v>
       </c>
       <c r="M11" s="1">
         <v>1000.0</v>
       </c>
-      <c r="N11" s="3">
-        <f t="shared" si="3"/>
+      <c r="N11" s="2">
+        <f t="shared" si="5"/>
         <v>980.2286527</v>
       </c>
-      <c r="O11" s="3">
-        <f t="shared" si="4"/>
+      <c r="O11" s="2">
+        <f t="shared" si="6"/>
         <v>9.464137747</v>
       </c>
-      <c r="P11" s="4">
-        <f t="shared" si="5"/>
+      <c r="P11" s="3">
+        <f t="shared" si="7"/>
         <v>0.9655030712</v>
       </c>
-      <c r="Q11" s="3">
-        <f t="shared" si="6"/>
+      <c r="Q11" s="2">
+        <f t="shared" si="8"/>
         <v>1.97713473</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="N16" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="O16" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="P16" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="R16" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="S16" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="T16" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="U16" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="V16" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="W16" s="6">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>286.379936</v>
+      </c>
+      <c r="C17" s="1">
+        <v>284.934181</v>
+      </c>
+      <c r="D17" s="1">
+        <v>281.64681</v>
+      </c>
+      <c r="E17" s="1">
+        <v>285.003027</v>
+      </c>
+      <c r="F17" s="1">
+        <v>277.154644</v>
+      </c>
+      <c r="G17" s="1">
+        <v>282.02546</v>
+      </c>
+      <c r="H17" s="1">
+        <v>277.292334</v>
+      </c>
+      <c r="I17" s="1">
+        <v>284.142459</v>
+      </c>
+      <c r="J17" s="1">
+        <v>281.164892</v>
+      </c>
+      <c r="K17" s="1">
+        <v>276.087539</v>
+      </c>
+      <c r="M17" s="6">
+        <v>300.0</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>480.524157</v>
+      </c>
+      <c r="C18" s="1">
+        <v>485.085169</v>
+      </c>
+      <c r="D18" s="1">
+        <v>474.65508</v>
+      </c>
+      <c r="E18" s="1">
+        <v>478.699752</v>
+      </c>
+      <c r="F18" s="1">
+        <v>481.711741</v>
+      </c>
+      <c r="G18" s="1">
+        <v>478.871865</v>
+      </c>
+      <c r="H18" s="1">
+        <v>480.334831</v>
+      </c>
+      <c r="I18" s="1">
+        <v>485.945737</v>
+      </c>
+      <c r="J18" s="1">
+        <v>477.735915</v>
+      </c>
+      <c r="K18" s="1">
+        <v>475.842665</v>
+      </c>
+      <c r="M18" s="6">
+        <v>500.0</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>957.330658</v>
+      </c>
+      <c r="C19" s="1">
+        <v>967.468153</v>
+      </c>
+      <c r="D19" s="1">
+        <v>978.242469</v>
+      </c>
+      <c r="E19" s="1">
+        <v>959.533713</v>
+      </c>
+      <c r="F19" s="1">
+        <v>973.113481</v>
+      </c>
+      <c r="G19" s="1">
+        <v>956.745471</v>
+      </c>
+      <c r="H19" s="1">
+        <v>965.110196</v>
+      </c>
+      <c r="I19" s="1">
+        <v>975.815666</v>
+      </c>
+      <c r="J19" s="1">
+        <v>971.168597</v>
+      </c>
+      <c r="K19" s="1">
+        <v>969.963801</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1000.0</v>
+      </c>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+    </row>
+    <row r="20">
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" ref="B22:B24" si="9">AVERAGE(B17:K17)</f>
+        <v>281.5831282</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" ref="C22:C24" si="10">STDEV(B17:K17)</f>
+        <v>3.667928935</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22:D24" si="11">DIVIDE(C22,DIVIDE(B22,100))</f>
+        <v>1.302609627</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" ref="E22:E24" si="12">MULTIPLY(DIVIDE(MINUS(A22,B22),A22),100)</f>
+        <v>6.138957267</v>
+      </c>
+      <c r="M22" s="6">
+        <v>300.0</v>
+      </c>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" si="9"/>
+        <v>479.9406912</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="10"/>
+        <v>3.627571654</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="11"/>
+        <v>0.7558374858</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="12"/>
+        <v>4.01186176</v>
+      </c>
+      <c r="M23" s="6">
+        <v>500.0</v>
+      </c>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="9"/>
+        <v>967.4492205</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="10"/>
+        <v>7.628998482</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="11"/>
+        <v>0.7885683631</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="12"/>
+        <v>3.25507795</v>
+      </c>
+      <c r="M24" s="6">
+        <v>1000.0</v>
+      </c>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="M15:M16"/>
     <mergeCell ref="A1:K1"/>
+    <mergeCell ref="M1:W1"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:K2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="M1:W1"/>
     <mergeCell ref="N2:W2"/>
-    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="M14:W14"/>
+    <mergeCell ref="N15:W15"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Sartorious_experiments/Finalised_Data/BOTorch_best_para_stats.xlsx
+++ b/Sartorious_experiments/Finalised_Data/BOTorch_best_para_stats.xlsx
@@ -84,7 +84,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -101,6 +101,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -884,16 +887,36 @@
       <c r="M17" s="6">
         <v>300.0</v>
       </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
+      <c r="N17" s="7">
+        <v>281.615366</v>
+      </c>
+      <c r="O17" s="7">
+        <v>281.865558</v>
+      </c>
+      <c r="P17" s="7">
+        <v>284.867854</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>280.331051</v>
+      </c>
+      <c r="R17" s="7">
+        <v>278.62975</v>
+      </c>
+      <c r="S17" s="7">
+        <v>279.630515</v>
+      </c>
+      <c r="T17" s="7">
+        <v>283.049797</v>
+      </c>
+      <c r="U17" s="7">
+        <v>278.779865</v>
+      </c>
+      <c r="V17" s="7">
+        <v>285.751863</v>
+      </c>
+      <c r="W17" s="7">
+        <v>285.585069</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
@@ -932,16 +955,36 @@
       <c r="M18" s="6">
         <v>500.0</v>
       </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
+      <c r="N18" s="7">
+        <v>478.349153</v>
+      </c>
+      <c r="O18" s="7">
+        <v>471.377154</v>
+      </c>
+      <c r="P18" s="7">
+        <v>473.862388</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>475.063307</v>
+      </c>
+      <c r="R18" s="7">
+        <v>472.127728</v>
+      </c>
+      <c r="S18" s="7">
+        <v>476.547775</v>
+      </c>
+      <c r="T18" s="7">
+        <v>475.613728</v>
+      </c>
+      <c r="U18" s="7">
+        <v>481.434846</v>
+      </c>
+      <c r="V18" s="7">
+        <v>475.713804</v>
+      </c>
+      <c r="W18" s="7">
+        <v>477.348387</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
@@ -980,16 +1023,36 @@
       <c r="M19" s="6">
         <v>1000.0</v>
       </c>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
+      <c r="N19" s="7">
+        <v>988.405887</v>
+      </c>
+      <c r="O19" s="7">
+        <v>985.43695</v>
+      </c>
+      <c r="P19" s="7">
+        <v>994.727388</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>986.30428</v>
+      </c>
+      <c r="R19" s="7">
+        <v>986.120807</v>
+      </c>
+      <c r="S19" s="7">
+        <v>986.237562</v>
+      </c>
+      <c r="T19" s="7">
+        <v>973.110857</v>
+      </c>
+      <c r="U19" s="7">
+        <v>983.201908</v>
+      </c>
+      <c r="V19" s="7">
+        <v>975.562732</v>
+      </c>
+      <c r="W19" s="7">
+        <v>979.348961</v>
+      </c>
     </row>
     <row r="20">
       <c r="M20" s="5"/>
@@ -1065,10 +1128,22 @@
       <c r="M22" s="6">
         <v>300.0</v>
       </c>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
+      <c r="N22" s="6">
+        <f t="shared" ref="N22:N24" si="13">AVERAGE(N17:W17)</f>
+        <v>282.0106688</v>
+      </c>
+      <c r="O22" s="6">
+        <f t="shared" ref="O22:O24" si="14">STDEV(N17:W17)</f>
+        <v>2.71924091</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" ref="P22:P24" si="15">DIVIDE(O22,DIVIDE(N22,100))</f>
+        <v>0.9642333469</v>
+      </c>
+      <c r="Q22" s="6">
+        <f t="shared" ref="Q22:Q24" si="16">MULTIPLY(DIVIDE(MINUS(M22,N22),M22),100)</f>
+        <v>5.996443733</v>
+      </c>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
@@ -1099,10 +1174,22 @@
       <c r="M23" s="6">
         <v>500.0</v>
       </c>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
+      <c r="N23" s="6">
+        <f t="shared" si="13"/>
+        <v>475.743827</v>
+      </c>
+      <c r="O23" s="6">
+        <f t="shared" si="14"/>
+        <v>2.954490337</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="15"/>
+        <v>0.6210254699</v>
+      </c>
+      <c r="Q23" s="6">
+        <f t="shared" si="16"/>
+        <v>4.8512346</v>
+      </c>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
@@ -1133,10 +1220,22 @@
       <c r="M24" s="6">
         <v>1000.0</v>
       </c>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
+      <c r="N24" s="6">
+        <f t="shared" si="13"/>
+        <v>983.8457332</v>
+      </c>
+      <c r="O24" s="6">
+        <f t="shared" si="14"/>
+        <v>6.352250607</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" si="15"/>
+        <v>0.6456551462</v>
+      </c>
+      <c r="Q24" s="6">
+        <f t="shared" si="16"/>
+        <v>1.61542668</v>
+      </c>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
@@ -1146,17 +1245,17 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="M1:W1"/>
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="N2:W2"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A14:K14"/>
     <mergeCell ref="M14:W14"/>
+    <mergeCell ref="B15:K15"/>
     <mergeCell ref="N15:W15"/>
   </mergeCells>
   <drawing r:id="rId1"/>

--- a/Sartorious_experiments/Finalised_Data/BOTorch_best_para_stats.xlsx
+++ b/Sartorious_experiments/Finalised_Data/BOTorch_best_para_stats.xlsx
@@ -1,12 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itssastar-my.sharepoint.com/personal/quijanovelascop_imre_a-star_edu_sg/Documents/Documents/GitHub/viscosity_liquid_transfer_Pablo/Sartorious_experiments/Finalised_Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_96766634BB0A0FA748C781761D018B50615D0575" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -46,20 +66,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -69,7 +91,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -79,46 +101,47 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -308,121 +331,166 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.0"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="M1" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="M2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
       <c r="B3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H3" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I3" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="K3" s="1">
-        <v>10.0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="M3" s="6"/>
       <c r="N3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P3" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R3" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S3" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="T3" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U3" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="V3" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="W3" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="B4" s="1">
-        <v>294.155272</v>
+        <v>294.15527200000002</v>
       </c>
       <c r="C4" s="1">
-        <v>294.914274</v>
+        <v>294.91427399999998</v>
       </c>
       <c r="D4" s="1">
-        <v>291.338533</v>
+        <v>291.33853299999998</v>
       </c>
       <c r="E4" s="1">
-        <v>290.427731</v>
+        <v>290.42773099999999</v>
       </c>
       <c r="F4" s="1">
         <v>293.969739</v>
@@ -431,190 +499,190 @@
         <v>294.52634</v>
       </c>
       <c r="H4" s="1">
-        <v>289.786797</v>
+        <v>289.78679699999998</v>
       </c>
       <c r="I4" s="1">
-        <v>286.531523</v>
+        <v>286.53152299999999</v>
       </c>
       <c r="J4" s="1">
         <v>285.06412</v>
       </c>
       <c r="K4" s="1">
-        <v>288.707328</v>
+        <v>288.70732800000002</v>
       </c>
       <c r="M4" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="N4" s="1">
-        <v>282.948345</v>
+        <v>282.94834500000002</v>
       </c>
       <c r="O4" s="1">
-        <v>285.19703</v>
+        <v>285.19702999999998</v>
       </c>
       <c r="P4" s="1">
         <v>284.760718</v>
       </c>
       <c r="Q4" s="1">
-        <v>294.242114</v>
+        <v>294.24211400000002</v>
       </c>
       <c r="R4" s="1">
-        <v>288.855338</v>
+        <v>288.85533800000002</v>
       </c>
       <c r="S4" s="1">
-        <v>280.817128</v>
+        <v>280.81712800000003</v>
       </c>
       <c r="T4" s="1">
-        <v>284.089469</v>
+        <v>284.08946900000001</v>
       </c>
       <c r="U4" s="1">
-        <v>287.009403</v>
+        <v>287.00940300000002</v>
       </c>
       <c r="V4" s="1">
-        <v>280.16266</v>
+        <v>280.16266000000002</v>
       </c>
       <c r="W4" s="1">
-        <v>281.270222</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>281.27022199999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="B5" s="1">
-        <v>483.618929</v>
+        <v>483.61892899999998</v>
       </c>
       <c r="C5" s="1">
-        <v>493.334149</v>
+        <v>493.33414900000002</v>
       </c>
       <c r="D5" s="1">
-        <v>486.99227</v>
+        <v>486.99227000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>488.358472</v>
+        <v>488.35847200000001</v>
       </c>
       <c r="F5" s="1">
-        <v>472.857974</v>
+        <v>472.85797400000001</v>
       </c>
       <c r="G5" s="1">
-        <v>487.953672</v>
+        <v>487.95367199999998</v>
       </c>
       <c r="H5" s="1">
-        <v>493.367883</v>
+        <v>493.36788300000001</v>
       </c>
       <c r="I5" s="1">
         <f>0.419795/(0.8683/1000)</f>
-        <v>483.4676955</v>
+        <v>483.46769549694807</v>
       </c>
       <c r="J5" s="1">
-        <v>483.888796</v>
+        <v>483.88879600000001</v>
       </c>
       <c r="K5" s="1">
         <v>480.127522</v>
       </c>
       <c r="M5" s="1">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="N5" s="1">
-        <v>488.333838</v>
+        <v>488.33383800000001</v>
       </c>
       <c r="O5" s="1">
-        <v>494.005894</v>
+        <v>494.00589400000001</v>
       </c>
       <c r="P5" s="1">
-        <v>494.509331</v>
+        <v>494.50933099999997</v>
       </c>
       <c r="Q5" s="1">
-        <v>484.457373</v>
+        <v>484.45737300000002</v>
       </c>
       <c r="R5" s="1">
-        <v>475.194133</v>
+        <v>475.19413300000002</v>
       </c>
       <c r="S5" s="1">
-        <v>489.139337</v>
+        <v>489.13933700000001</v>
       </c>
       <c r="T5" s="1">
-        <v>480.094253</v>
+        <v>480.09425299999998</v>
       </c>
       <c r="U5" s="1">
-        <v>474.87529</v>
+        <v>474.87529000000001</v>
       </c>
       <c r="V5" s="1">
-        <v>488.115682</v>
+        <v>488.11568199999999</v>
       </c>
       <c r="W5" s="1">
-        <v>495.063111</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>495.06311099999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="B6" s="1">
-        <f>DIVIDE(0.850503,0.8639/1000)</f>
-        <v>984.4924181</v>
+        <v>1000</v>
+      </c>
+      <c r="B6" s="1" t="e">
+        <f ca="1">DIVIDE(0.850503,0.8639/1000)</f>
+        <v>#NAME?</v>
       </c>
       <c r="C6" s="1">
-        <v>990.733174</v>
+        <v>990.73317399999996</v>
       </c>
       <c r="D6" s="1">
-        <v>992.993312</v>
+        <v>992.99331199999995</v>
       </c>
       <c r="E6" s="1">
-        <v>992.28491</v>
+        <v>992.28490999999997</v>
       </c>
       <c r="F6" s="1">
-        <v>990.969307</v>
+        <v>990.96930699999996</v>
       </c>
       <c r="G6" s="1">
-        <v>986.752632</v>
+        <v>986.75263199999995</v>
       </c>
       <c r="H6" s="1">
-        <v>989.147704</v>
+        <v>989.14770399999998</v>
       </c>
       <c r="I6" s="1">
-        <v>980.444486</v>
+        <v>980.44448599999998</v>
       </c>
       <c r="J6" s="1">
-        <v>997.024453</v>
+        <v>997.02445299999999</v>
       </c>
       <c r="K6" s="1">
-        <v>989.198304</v>
+        <v>989.19830400000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="N6" s="1">
-        <v>979.403016</v>
+        <v>979.40301599999998</v>
       </c>
       <c r="O6" s="1">
-        <v>997.459621</v>
+        <v>997.45962099999997</v>
       </c>
       <c r="P6" s="1">
-        <v>987.995007</v>
+        <v>987.99500699999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>972.556274</v>
+        <v>972.55627400000003</v>
       </c>
       <c r="R6" s="1">
-        <v>974.704271</v>
+        <v>974.70427099999995</v>
       </c>
       <c r="S6" s="1">
-        <v>992.022502</v>
+        <v>992.02250200000003</v>
       </c>
       <c r="T6" s="1">
-        <v>966.330437</v>
+        <v>966.33043699999996</v>
       </c>
       <c r="U6" s="1">
-        <v>977.053644</v>
+        <v>977.05364399999996</v>
       </c>
       <c r="V6" s="1">
-        <v>977.758455</v>
+        <v>977.75845500000003</v>
       </c>
       <c r="W6" s="1">
-        <v>977.0033</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>977.00329999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -646,428 +714,468 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>300.0</v>
-      </c>
-      <c r="B9" s="2">
-        <f t="shared" ref="B9:B11" si="1">AVERAGE(B4:K4)</f>
-        <v>290.9421657</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" ref="C9:C11" si="2">STDEV(B4:K4)</f>
-        <v>3.478034545</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" ref="D9:D11" si="3">DIVIDE(C9,DIVIDE(B9,100))</f>
-        <v>1.19543846</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" ref="E9:E11" si="4">MULTIPLY(DIVIDE(MINUS(A9,B9),A9),100)</f>
-        <v>3.0192781</v>
+        <v>300</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" ref="B9:B11" si="0">AVERAGE(B4:K4)</f>
+        <v>290.94216569999998</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" ref="C9:C11" si="1">STDEV(B4:K4)</f>
+        <v>3.4780345454706985</v>
+      </c>
+      <c r="D9" s="1" t="e">
+        <f t="shared" ref="D9:D11" ca="1" si="2">DIVIDE(C9,DIVIDE(B9,100))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E9" s="1" t="e">
+        <f t="shared" ref="E9:E11" ca="1" si="3">MULTIPLY(DIVIDE(MINUS(A9,B9),A9),100)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M9" s="1">
-        <v>300.0</v>
-      </c>
-      <c r="N9" s="2">
-        <f t="shared" ref="N9:N11" si="5">AVERAGE(N4:W4)</f>
+        <v>300</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" ref="N9:N11" si="4">AVERAGE(N4:W4)</f>
         <v>284.9352427</v>
       </c>
-      <c r="O9" s="2">
-        <f t="shared" ref="O9:O11" si="6">STDEV(N4:W4)</f>
-        <v>4.271585961</v>
-      </c>
-      <c r="P9" s="3">
-        <f t="shared" ref="P9:P11" si="7">DIVIDE(O9,DIVIDE(N9,100))</f>
-        <v>1.499142725</v>
-      </c>
-      <c r="Q9" s="2">
-        <f t="shared" ref="Q9:Q11" si="8">MULTIPLY(DIVIDE(MINUS(M9,N9),M9),100)</f>
-        <v>5.021585767</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="O9" s="1">
+        <f t="shared" ref="O9:O11" si="5">STDEV(N4:W4)</f>
+        <v>4.2715859614081699</v>
+      </c>
+      <c r="P9" s="2" t="e">
+        <f t="shared" ref="P9:P11" ca="1" si="6">DIVIDE(O9,DIVIDE(N9,100))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q9" s="1" t="e">
+        <f t="shared" ref="Q9:Q11" ca="1" si="7">MULTIPLY(DIVIDE(MINUS(M9,N9),M9),100)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="B10" s="2">
+        <v>500</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>485.39673624969481</v>
+      </c>
+      <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>485.3967362</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="2"/>
-        <v>6.133134842</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="3"/>
-        <v>1.263530301</v>
-      </c>
-      <c r="E10" s="2">
+        <v>6.1331348420855116</v>
+      </c>
+      <c r="D10" s="1" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E10" s="1" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="M10" s="1">
+        <v>500</v>
+      </c>
+      <c r="N10" s="1">
         <f t="shared" si="4"/>
-        <v>2.92065275</v>
-      </c>
-      <c r="M10" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="N10" s="2">
+        <v>486.37882420000005</v>
+      </c>
+      <c r="O10" s="1">
         <f t="shared" si="5"/>
-        <v>486.3788242</v>
-      </c>
-      <c r="O10" s="2">
-        <f t="shared" si="6"/>
-        <v>7.562846193</v>
-      </c>
-      <c r="P10" s="3">
-        <f t="shared" si="7"/>
-        <v>1.554929166</v>
-      </c>
-      <c r="Q10" s="2">
-        <f t="shared" si="8"/>
-        <v>2.72423516</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>7.5628461932876165</v>
+      </c>
+      <c r="P10" s="2" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q10" s="1" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="B11" s="2">
-        <f t="shared" si="1"/>
-        <v>989.40407</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="2"/>
-        <v>4.65480964</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="3"/>
-        <v>0.4704659887</v>
-      </c>
-      <c r="E11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="1" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="C11" s="1" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D11" s="1" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E11" s="1" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N11" s="1">
         <f t="shared" si="4"/>
-        <v>1.059592999</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="N11" s="2">
+        <v>980.22865269999988</v>
+      </c>
+      <c r="O11" s="1">
         <f t="shared" si="5"/>
-        <v>980.2286527</v>
-      </c>
-      <c r="O11" s="2">
-        <f t="shared" si="6"/>
-        <v>9.464137747</v>
-      </c>
-      <c r="P11" s="3">
-        <f t="shared" si="7"/>
-        <v>0.9655030712</v>
-      </c>
-      <c r="Q11" s="2">
-        <f t="shared" si="8"/>
-        <v>1.97713473</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+        <v>9.4641377468903052</v>
+      </c>
+      <c r="P11" s="2" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q11" s="1" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="M14" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+    </row>
+    <row r="15" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="M15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+    </row>
+    <row r="16" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
       <c r="B16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F16" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G16" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H16" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I16" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="K16" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="N16" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="O16" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="P16" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="R16" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="S16" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="T16" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="U16" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="V16" s="6">
-        <v>9.0</v>
-      </c>
-      <c r="W16" s="6">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>10</v>
+      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
+      <c r="O16" s="4">
+        <v>2</v>
+      </c>
+      <c r="P16" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>4</v>
+      </c>
+      <c r="R16" s="4">
+        <v>5</v>
+      </c>
+      <c r="S16" s="4">
+        <v>6</v>
+      </c>
+      <c r="T16" s="4">
+        <v>7</v>
+      </c>
+      <c r="U16" s="4">
+        <v>8</v>
+      </c>
+      <c r="V16" s="4">
+        <v>9</v>
+      </c>
+      <c r="W16" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="B17" s="1">
-        <v>286.379936</v>
+        <v>286.37993599999999</v>
       </c>
       <c r="C17" s="1">
-        <v>284.934181</v>
+        <v>284.93418100000002</v>
       </c>
       <c r="D17" s="1">
-        <v>281.64681</v>
+        <v>281.64681000000002</v>
       </c>
       <c r="E17" s="1">
-        <v>285.003027</v>
+        <v>285.00302699999997</v>
       </c>
       <c r="F17" s="1">
-        <v>277.154644</v>
+        <v>277.15464400000002</v>
       </c>
       <c r="G17" s="1">
-        <v>282.02546</v>
+        <v>282.02546000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>277.292334</v>
+        <v>277.29233399999998</v>
       </c>
       <c r="I17" s="1">
-        <v>284.142459</v>
+        <v>284.14245899999997</v>
       </c>
       <c r="J17" s="1">
-        <v>281.164892</v>
+        <v>281.16489200000001</v>
       </c>
       <c r="K17" s="1">
-        <v>276.087539</v>
-      </c>
-      <c r="M17" s="6">
-        <v>300.0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>281.615366</v>
-      </c>
-      <c r="O17" s="7">
-        <v>281.865558</v>
-      </c>
-      <c r="P17" s="7">
-        <v>284.867854</v>
-      </c>
-      <c r="Q17" s="7">
+        <v>276.08753899999999</v>
+      </c>
+      <c r="M17" s="4">
+        <v>300</v>
+      </c>
+      <c r="N17" s="4">
+        <v>281.61536599999999</v>
+      </c>
+      <c r="O17" s="4">
+        <v>281.86555800000002</v>
+      </c>
+      <c r="P17" s="4">
+        <v>284.86785400000002</v>
+      </c>
+      <c r="Q17" s="4">
         <v>280.331051</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R17" s="4">
         <v>278.62975</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="4">
         <v>279.630515</v>
       </c>
-      <c r="T17" s="7">
-        <v>283.049797</v>
-      </c>
-      <c r="U17" s="7">
-        <v>278.779865</v>
-      </c>
-      <c r="V17" s="7">
-        <v>285.751863</v>
-      </c>
-      <c r="W17" s="7">
-        <v>285.585069</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="T17" s="4">
+        <v>283.04979700000001</v>
+      </c>
+      <c r="U17" s="4">
+        <v>278.77986499999997</v>
+      </c>
+      <c r="V17" s="4">
+        <v>285.75186300000001</v>
+      </c>
+      <c r="W17" s="4">
+        <v>285.58506899999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="B18" s="1">
         <v>480.524157</v>
       </c>
       <c r="C18" s="1">
-        <v>485.085169</v>
+        <v>485.08516900000001</v>
       </c>
       <c r="D18" s="1">
         <v>474.65508</v>
       </c>
       <c r="E18" s="1">
-        <v>478.699752</v>
+        <v>478.69975199999999</v>
       </c>
       <c r="F18" s="1">
-        <v>481.711741</v>
+        <v>481.71174100000002</v>
       </c>
       <c r="G18" s="1">
-        <v>478.871865</v>
+        <v>478.87186500000001</v>
       </c>
       <c r="H18" s="1">
-        <v>480.334831</v>
+        <v>480.33483100000001</v>
       </c>
       <c r="I18" s="1">
-        <v>485.945737</v>
+        <v>485.94573700000001</v>
       </c>
       <c r="J18" s="1">
-        <v>477.735915</v>
+        <v>477.73591499999998</v>
       </c>
       <c r="K18" s="1">
-        <v>475.842665</v>
-      </c>
-      <c r="M18" s="6">
-        <v>500.0</v>
-      </c>
-      <c r="N18" s="7">
+        <v>475.84266500000001</v>
+      </c>
+      <c r="M18" s="4">
+        <v>500</v>
+      </c>
+      <c r="N18" s="4">
         <v>478.349153</v>
       </c>
-      <c r="O18" s="7">
-        <v>471.377154</v>
-      </c>
-      <c r="P18" s="7">
-        <v>473.862388</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>475.063307</v>
-      </c>
-      <c r="R18" s="7">
-        <v>472.127728</v>
-      </c>
-      <c r="S18" s="7">
+      <c r="O18" s="4">
+        <v>471.37715400000002</v>
+      </c>
+      <c r="P18" s="4">
+        <v>473.86238800000001</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>475.06330700000001</v>
+      </c>
+      <c r="R18" s="4">
+        <v>472.12772799999999</v>
+      </c>
+      <c r="S18" s="4">
         <v>476.547775</v>
       </c>
-      <c r="T18" s="7">
-        <v>475.613728</v>
-      </c>
-      <c r="U18" s="7">
-        <v>481.434846</v>
-      </c>
-      <c r="V18" s="7">
-        <v>475.713804</v>
-      </c>
-      <c r="W18" s="7">
+      <c r="T18" s="4">
+        <v>475.61372799999998</v>
+      </c>
+      <c r="U18" s="4">
+        <v>481.43484599999999</v>
+      </c>
+      <c r="V18" s="4">
+        <v>475.71380399999998</v>
+      </c>
+      <c r="W18" s="4">
         <v>477.348387</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="B19" s="1">
-        <v>957.330658</v>
+        <v>957.33065799999997</v>
       </c>
       <c r="C19" s="1">
-        <v>967.468153</v>
+        <v>967.46815300000003</v>
       </c>
       <c r="D19" s="1">
-        <v>978.242469</v>
+        <v>978.24246900000003</v>
       </c>
       <c r="E19" s="1">
-        <v>959.533713</v>
+        <v>959.53371300000003</v>
       </c>
       <c r="F19" s="1">
-        <v>973.113481</v>
+        <v>973.11348099999998</v>
       </c>
       <c r="G19" s="1">
-        <v>956.745471</v>
+        <v>956.74547099999995</v>
       </c>
       <c r="H19" s="1">
-        <v>965.110196</v>
+        <v>965.11019599999997</v>
       </c>
       <c r="I19" s="1">
-        <v>975.815666</v>
+        <v>975.81566599999996</v>
       </c>
       <c r="J19" s="1">
-        <v>971.168597</v>
+        <v>971.16859699999998</v>
       </c>
       <c r="K19" s="1">
-        <v>969.963801</v>
-      </c>
-      <c r="M19" s="6">
-        <v>1000.0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>988.405887</v>
-      </c>
-      <c r="O19" s="7">
-        <v>985.43695</v>
-      </c>
-      <c r="P19" s="7">
-        <v>994.727388</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>986.30428</v>
-      </c>
-      <c r="R19" s="7">
-        <v>986.120807</v>
-      </c>
-      <c r="S19" s="7">
-        <v>986.237562</v>
-      </c>
-      <c r="T19" s="7">
-        <v>973.110857</v>
-      </c>
-      <c r="U19" s="7">
+        <v>969.96380099999999</v>
+      </c>
+      <c r="M19" s="4">
+        <v>1000</v>
+      </c>
+      <c r="N19" s="4">
+        <v>988.40588700000001</v>
+      </c>
+      <c r="O19" s="4">
+        <v>985.43695000000002</v>
+      </c>
+      <c r="P19" s="4">
+        <v>994.72738800000002</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>986.30427999999995</v>
+      </c>
+      <c r="R19" s="4">
+        <v>986.12080700000001</v>
+      </c>
+      <c r="S19" s="4">
+        <v>986.23756200000003</v>
+      </c>
+      <c r="T19" s="4">
+        <v>973.11085700000001</v>
+      </c>
+      <c r="U19" s="4">
         <v>983.201908</v>
       </c>
-      <c r="V19" s="7">
-        <v>975.562732</v>
-      </c>
-      <c r="W19" s="7">
-        <v>979.348961</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-    </row>
-    <row r="21">
+      <c r="V19" s="4">
+        <v>975.56273199999998</v>
+      </c>
+      <c r="W19" s="4">
+        <v>979.34896100000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+    </row>
+    <row r="21" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -1083,165 +1191,165 @@
       <c r="E21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="M21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="5" t="s">
+      <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="P21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q21" s="5" t="s">
+      <c r="Q21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-    </row>
-    <row r="22">
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+    </row>
+    <row r="22" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>300.0</v>
-      </c>
-      <c r="B22" s="2">
-        <f t="shared" ref="B22:B24" si="9">AVERAGE(B17:K17)</f>
-        <v>281.5831282</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" ref="C22:C24" si="10">STDEV(B17:K17)</f>
-        <v>3.667928935</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" ref="D22:D24" si="11">DIVIDE(C22,DIVIDE(B22,100))</f>
-        <v>1.302609627</v>
-      </c>
-      <c r="E22" s="3">
-        <f t="shared" ref="E22:E24" si="12">MULTIPLY(DIVIDE(MINUS(A22,B22),A22),100)</f>
-        <v>6.138957267</v>
-      </c>
-      <c r="M22" s="6">
-        <v>300.0</v>
-      </c>
-      <c r="N22" s="6">
-        <f t="shared" ref="N22:N24" si="13">AVERAGE(N17:W17)</f>
-        <v>282.0106688</v>
-      </c>
-      <c r="O22" s="6">
-        <f t="shared" ref="O22:O24" si="14">STDEV(N17:W17)</f>
-        <v>2.71924091</v>
-      </c>
-      <c r="P22" s="3">
-        <f t="shared" ref="P22:P24" si="15">DIVIDE(O22,DIVIDE(N22,100))</f>
-        <v>0.9642333469</v>
-      </c>
-      <c r="Q22" s="6">
-        <f t="shared" ref="Q22:Q24" si="16">MULTIPLY(DIVIDE(MINUS(M22,N22),M22),100)</f>
-        <v>5.996443733</v>
-      </c>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-    </row>
-    <row r="23">
+        <v>300</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" ref="B22:B24" si="8">AVERAGE(B17:K17)</f>
+        <v>281.58312820000003</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" ref="C22:C24" si="9">STDEV(B17:K17)</f>
+        <v>3.6679289346698001</v>
+      </c>
+      <c r="D22" s="1" t="e">
+        <f t="shared" ref="D22:D24" ca="1" si="10">DIVIDE(C22,DIVIDE(B22,100))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E22" s="2" t="e">
+        <f t="shared" ref="E22:E24" ca="1" si="11">MULTIPLY(DIVIDE(MINUS(A22,B22),A22),100)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M22" s="4">
+        <v>300</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" ref="N22:N24" si="12">AVERAGE(N17:W17)</f>
+        <v>282.01066879999996</v>
+      </c>
+      <c r="O22" s="4">
+        <f t="shared" ref="O22:O24" si="13">STDEV(N17:W17)</f>
+        <v>2.7192409103153081</v>
+      </c>
+      <c r="P22" s="2" t="e">
+        <f t="shared" ref="P22:P24" ca="1" si="14">DIVIDE(O22,DIVIDE(N22,100))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q22" s="4" t="e">
+        <f t="shared" ref="Q22:Q24" ca="1" si="15">MULTIPLY(DIVIDE(MINUS(M22,N22),M22),100)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+    </row>
+    <row r="23" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>500.0</v>
-      </c>
-      <c r="B23" s="2">
+        <v>500</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="8"/>
+        <v>479.94069120000006</v>
+      </c>
+      <c r="C23" s="1">
         <f t="shared" si="9"/>
-        <v>479.9406912</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" si="10"/>
-        <v>3.627571654</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="11"/>
-        <v>0.7558374858</v>
-      </c>
-      <c r="E23" s="3">
+        <v>3.6275716539370135</v>
+      </c>
+      <c r="D23" s="1" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E23" s="2" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="M23" s="4">
+        <v>500</v>
+      </c>
+      <c r="N23" s="4">
         <f t="shared" si="12"/>
-        <v>4.01186176</v>
-      </c>
-      <c r="M23" s="6">
-        <v>500.0</v>
-      </c>
-      <c r="N23" s="6">
+        <v>475.74382699999995</v>
+      </c>
+      <c r="O23" s="4">
         <f t="shared" si="13"/>
-        <v>475.743827</v>
-      </c>
-      <c r="O23" s="6">
-        <f t="shared" si="14"/>
-        <v>2.954490337</v>
-      </c>
-      <c r="P23" s="3">
-        <f t="shared" si="15"/>
-        <v>0.6210254699</v>
-      </c>
-      <c r="Q23" s="6">
-        <f t="shared" si="16"/>
-        <v>4.8512346</v>
-      </c>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-    </row>
-    <row r="24">
+        <v>2.954490337381424</v>
+      </c>
+      <c r="P23" s="2" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q23" s="4" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+    </row>
+    <row r="24" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="B24" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="8"/>
+        <v>967.44922050000002</v>
+      </c>
+      <c r="C24" s="1">
         <f t="shared" si="9"/>
-        <v>967.4492205</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" si="10"/>
-        <v>7.628998482</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="11"/>
-        <v>0.7885683631</v>
-      </c>
-      <c r="E24" s="3">
+        <v>7.628998482382026</v>
+      </c>
+      <c r="D24" s="1" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="E24" s="2" t="e">
+        <f t="shared" ca="1" si="11"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="M24" s="4">
+        <v>1000</v>
+      </c>
+      <c r="N24" s="4">
         <f t="shared" si="12"/>
-        <v>3.25507795</v>
-      </c>
-      <c r="M24" s="6">
-        <v>1000.0</v>
-      </c>
-      <c r="N24" s="6">
+        <v>983.84573320000004</v>
+      </c>
+      <c r="O24" s="4">
         <f t="shared" si="13"/>
-        <v>983.8457332</v>
-      </c>
-      <c r="O24" s="6">
-        <f t="shared" si="14"/>
-        <v>6.352250607</v>
-      </c>
-      <c r="P24" s="3">
-        <f t="shared" si="15"/>
-        <v>0.6456551462</v>
-      </c>
-      <c r="Q24" s="6">
-        <f t="shared" si="16"/>
-        <v>1.61542668</v>
-      </c>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
+        <v>6.352250606917397</v>
+      </c>
+      <c r="P24" s="2" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q24" s="4" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1258,6 +1366,6 @@
     <mergeCell ref="B15:K15"/>
     <mergeCell ref="N15:W15"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>